--- a/test/Tramites.xlsx
+++ b/test/Tramites.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>rodrigo</t>
   </si>
@@ -54,6 +54,60 @@
   </si>
   <si>
     <t>alternativo@gmail.com2</t>
+  </si>
+  <si>
+    <t>ELABORADOR</t>
+  </si>
+  <si>
+    <t>MAQUILADOR</t>
+  </si>
+  <si>
+    <t>SALES PURAS ANTIMICROBIANAS</t>
+  </si>
+  <si>
+    <t>BIOLÓGICAS</t>
+  </si>
+  <si>
+    <t>ALMACENAR</t>
+  </si>
+  <si>
+    <t>DISTRIBUIR</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>olmos</t>
+  </si>
+  <si>
+    <t>Salgado</t>
+  </si>
+  <si>
+    <t>rodrigo@gmail.com3</t>
+  </si>
+  <si>
+    <t>alternativo@gmail.com3</t>
+  </si>
+  <si>
+    <t>Erika</t>
+  </si>
+  <si>
+    <t>Paz</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>rodrigo@gmail.com4</t>
+  </si>
+  <si>
+    <t>alternativo@gmail.com4</t>
+  </si>
+  <si>
+    <t>ELABORADOR AUTO CONSUMO</t>
+  </si>
+  <si>
+    <t>ALIMENTICIAS</t>
   </si>
 </sst>
 </file>
@@ -382,19 +436,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="8" max="8" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,8 +478,17 @@
       <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -450,6 +515,91 @@
       </c>
       <c r="I2" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>423423</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>98</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>45</v>
+      </c>
+      <c r="E4">
+        <v>4243423</v>
+      </c>
+      <c r="F4">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <v>56</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -458,6 +608,10 @@
     <hyperlink ref="I1" r:id="rId2"/>
     <hyperlink ref="H2" r:id="rId3" display="rodrigo@gmail.com1"/>
     <hyperlink ref="I2" r:id="rId4" display="alternativo@gmail.com1"/>
+    <hyperlink ref="H3" r:id="rId5" display="rodrigo@gmail.com1"/>
+    <hyperlink ref="I3" r:id="rId6" display="alternativo@gmail.com1"/>
+    <hyperlink ref="H4" r:id="rId7" display="rodrigo@gmail.com1"/>
+    <hyperlink ref="I4" r:id="rId8" display="alternativo@gmail.com1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test/Tramites.xlsx
+++ b/test/Tramites.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>rodrigo</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>ALIMENTICIAS</t>
+  </si>
+  <si>
+    <t>calle 01</t>
   </si>
 </sst>
 </file>
@@ -436,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,7 +453,7 @@
     <col min="11" max="11" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,8 +490,20 @@
       <c r="L1" t="s">
         <v>14</v>
       </c>
+      <c r="M1">
+        <v>7980</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1">
+        <v>23</v>
+      </c>
+      <c r="P1">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -526,7 +541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -564,7 +579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
